--- a/SCRUM/SCRUM_TEAM_G.xlsx
+++ b/SCRUM/SCRUM_TEAM_G.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
   <si>
     <t>PO - Backlog</t>
   </si>
@@ -111,6 +111,15 @@
   </si>
   <si>
     <t>120min</t>
+  </si>
+  <si>
+    <t>360min</t>
+  </si>
+  <si>
+    <t>Star Terk Spiel Painter und Rules</t>
+  </si>
+  <si>
+    <t>Star Trek fertig machen</t>
   </si>
 </sst>
 </file>
@@ -608,7 +617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD9"/>
     </sheetView>
   </sheetViews>
@@ -951,8 +960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1053,7 +1062,9 @@
       <c r="D6" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="15"/>
+      <c r="E6" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
@@ -1085,7 +1096,9 @@
       <c r="D8" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E8"/>
+      <c r="E8" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
@@ -1100,19 +1113,40 @@
       <c r="D9" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E9"/>
+      <c r="E9" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="13"/>
+      <c r="A10" s="7">
+        <v>2</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="13"/>
+      <c r="A11" s="7">
+        <v>2</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
